--- a/data/trans_dic/P19D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 18,76</t>
+          <t>4,23; 20,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 21,68</t>
+          <t>8,5; 22,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 15,1</t>
+          <t>3,19; 14,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 14,87</t>
+          <t>2,84; 14,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 12,21</t>
+          <t>1,99; 11,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 20,67</t>
+          <t>6,45; 21,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 18,64</t>
+          <t>5,66; 18,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,77</t>
+          <t>3,55; 10,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 12,07</t>
+          <t>4,0; 12,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,07; 19,6</t>
+          <t>8,86; 18,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 13,8</t>
+          <t>5,74; 14,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 10,38</t>
+          <t>3,98; 10,03</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 9,01</t>
+          <t>4,31; 9,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,68</t>
+          <t>12,58; 19,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,81; 14,62</t>
+          <t>8,47; 14,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,26</t>
+          <t>7,35; 13,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,46</t>
+          <t>3,15; 7,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,34; 15,01</t>
+          <t>9,36; 14,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 11,08</t>
+          <t>6,11; 11,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,84</t>
+          <t>3,88; 6,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,39</t>
+          <t>4,25; 7,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 16,2</t>
+          <t>11,51; 16,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 12,07</t>
+          <t>7,94; 12,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,97; 9,22</t>
+          <t>6,04; 9,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,51</t>
+          <t>4,86; 8,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,21</t>
+          <t>12,22; 17,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,35</t>
+          <t>6,51; 10,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 30,2</t>
+          <t>7,47; 29,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,57</t>
+          <t>4,91; 8,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 14,56</t>
+          <t>9,85; 14,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 10,81</t>
+          <t>6,67; 10,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,13</t>
+          <t>4,63; 7,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 8,08</t>
+          <t>5,48; 8,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 14,94</t>
+          <t>11,77; 15,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 9,84</t>
+          <t>6,98; 9,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 17,81</t>
+          <t>6,48; 16,32</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 11,56</t>
+          <t>6,45; 11,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,95; 17,69</t>
+          <t>11,71; 17,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 11,81</t>
+          <t>6,52; 11,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 10,54</t>
+          <t>5,45; 10,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,69</t>
+          <t>4,74; 8,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,62</t>
+          <t>7,75; 12,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,67</t>
+          <t>5,32; 9,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,44</t>
+          <t>2,74; 6,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,38</t>
+          <t>6,23; 9,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,09</t>
+          <t>10,49; 14,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 9,85</t>
+          <t>6,25; 9,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,67</t>
+          <t>4,56; 7,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,81</t>
+          <t>4,95; 8,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,23; 12,61</t>
+          <t>8,53; 13,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,99</t>
+          <t>7,79; 12,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,19</t>
+          <t>6,33; 10,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,02</t>
+          <t>6,24; 10,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,06</t>
+          <t>8,18; 12,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 12,55</t>
+          <t>8,28; 12,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,24</t>
+          <t>5,74; 9,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,81</t>
+          <t>6,17; 8,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,59</t>
+          <t>8,76; 11,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,72</t>
+          <t>8,55; 11,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 9,06</t>
+          <t>6,32; 9,0</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,31</t>
+          <t>6,15; 8,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,34; 15,04</t>
+          <t>12,29; 14,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,37</t>
+          <t>8,14; 10,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 16,0</t>
+          <t>7,86; 14,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,82; 7,76</t>
+          <t>5,91; 7,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,93; 12,19</t>
+          <t>9,87; 12,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 9,89</t>
+          <t>7,69; 9,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,81</t>
+          <t>5,03; 6,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 7,69</t>
+          <t>6,24; 7,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,38; 13,16</t>
+          <t>11,37; 13,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,31; 9,88</t>
+          <t>8,33; 9,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,52</t>
+          <t>6,64; 10,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 20,25</t>
+          <t>4,15; 18,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,5; 22,04</t>
+          <t>8,73; 21,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 14,4</t>
+          <t>3,0; 14,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 11,19</t>
+          <t>1,96; 11,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 21,2</t>
+          <t>5,7; 21,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 18,94</t>
+          <t>6,12; 18,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 12,78</t>
+          <t>3,96; 12,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 18,85</t>
+          <t>8,82; 18,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 14,25</t>
+          <t>5,72; 14,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,38</t>
+          <t>4,1; 9,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 19,27</t>
+          <t>12,11; 19,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 14,73</t>
+          <t>8,62; 14,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,45</t>
+          <t>3,24; 7,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 14,84</t>
+          <t>9,38; 14,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,51</t>
+          <t>6,08; 11,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,36</t>
+          <t>4,23; 7,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,51; 16,09</t>
+          <t>11,47; 15,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,13</t>
+          <t>8,06; 11,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,78</t>
+          <t>5,05; 8,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 17,36</t>
+          <t>12,36; 17,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,52</t>
+          <t>6,14; 10,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,55</t>
+          <t>5,11; 8,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 14,29</t>
+          <t>9,82; 14,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,51</t>
+          <t>6,71; 10,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,07</t>
+          <t>5,44; 8,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,12</t>
+          <t>11,75; 15,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 9,92</t>
+          <t>6,96; 9,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 11,24</t>
+          <t>6,43; 11,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 17,49</t>
+          <t>11,71; 17,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,52; 11,59</t>
+          <t>6,35; 11,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,65</t>
+          <t>4,76; 8,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,37</t>
+          <t>7,5; 12,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,91</t>
+          <t>5,42; 9,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 9,38</t>
+          <t>6,03; 9,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,49; 14,08</t>
+          <t>10,5; 14,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,85</t>
+          <t>6,33; 9,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,68</t>
+          <t>5,15; 8,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 13,04</t>
+          <t>8,2; 12,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 12,01</t>
+          <t>7,77; 11,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,11</t>
+          <t>6,16; 10,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,19</t>
+          <t>8,01; 12,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,28; 12,38</t>
+          <t>8,1; 12,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,17; 8,74</t>
+          <t>6,12; 8,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,76; 11,65</t>
+          <t>8,75; 11,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,55; 11,75</t>
+          <t>8,5; 11,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,35</t>
+          <t>6,21; 8,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,29; 14,91</t>
+          <t>12,32; 15,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 10,29</t>
+          <t>8,21; 10,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,81</t>
+          <t>5,84; 7,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,87; 12,21</t>
+          <t>9,91; 12,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,69; 9,97</t>
+          <t>7,86; 10,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,65</t>
+          <t>6,33; 7,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,05</t>
+          <t>11,35; 13,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,33; 9,93</t>
+          <t>8,24; 9,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
